--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/21_Bursa_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/21_Bursa_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84A0694-3B7D-4D88-AA92-F2376CDCB46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DAA03F-A2AA-41D3-89B8-1A11A02B5CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{02CDB990-EB6D-49B5-833C-8067D29209CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{4FAC8237-2825-4B35-9949-FD5D9A1E8F49}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="127" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{70D2ED33-3785-4E40-A00D-12508E5D5AE3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D0A4A0F9-744F-4B1A-8EDB-D40A2CBA2F4B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{737B083C-1FC2-4B8D-B2EF-09DB86491F40}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AADC3146-379A-40A2-8FD9-7820BF835A6E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{7EBC0ADB-4EF2-4314-9882-61FD0F289FAD}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{DDCB55BF-B944-4038-A0AC-18DF1FEB731C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C26BBF4F-4762-4A9E-BDE8-8FB2DD625091}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{45BF46CA-EF14-45EE-9566-8AAAC67D6CBB}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D8C58BDC-B074-4A81-8F29-EBE8892FDCE1}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F471380A-7547-4AC6-9DB6-003A659C4F8F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{53295856-071A-4F70-82F1-2B6A54E7DCA9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{253B1E90-7BB5-4B11-8867-A14B37157469}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D10DDE4D-EE7B-4969-8E44-F515F0F60AE3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E1DDC9F5-0B67-48E3-9994-A0D445C3A76A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2071C15B-9D69-4D35-B336-49017A7C1B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474BDB7-1249-4469-A0F2-064A9A58B5C5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AC3D1B-8E72-4D6E-9D81-727C772C804E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D8306-359C-4A7D-9D52-489D3610AF6D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F7F041-7D74-4124-A5A5-5B6E3E06E4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02C3691-E62C-46E8-A115-193720B2620B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5151,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84F9BB4-E89D-418C-96F7-971453272217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00173F7E-0944-4682-BF7E-BC27ABEFD456}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6418,7 +6418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEA0BAA-5F7D-4509-A601-841EB7B7F7AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E01A20A-B0D9-48CE-B6AC-29F93EA0F40A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7735,7 +7735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B03F43-7AA4-4B22-9D24-675B36ED1CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAC8EF-6B00-4BDA-A19B-0F24E5BD7B5B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9052,7 +9052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F422A7-4E5F-4770-94F0-E992DFF124F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422879F8-5249-4C23-A628-A54D338EF8E8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10369,7 +10369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA517455-858D-4C49-B95F-DCC6ADEAD6DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE28EF8-A649-473F-80AD-AD2303815079}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11682,7 +11682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B3D4D6-0DAB-4811-B72B-FF93D2F5098F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA238FB1-0DC0-4C1F-8AB9-FFB67FFD93D3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12995,7 +12995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948F60D7-B112-4FC9-B478-A70D2F85EF01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403FFA-5BB4-4BE6-A96E-2B0507539E4C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14286,7 +14286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DB57C5-B095-41BD-805E-8C94A53E7D5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805CFE52-16B1-446F-BE1B-1A4900064397}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15577,7 +15577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDA894B-ECE7-44C9-8087-85EB855118B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6BE0D1-51ED-48B0-A406-8C7F4BCF2BA3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
